--- a/static/src/modelfiles/DQA3AutoResult.xlsx
+++ b/static/src/modelfiles/DQA3AutoResult.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="6560" yWindow="-230" windowWidth="14810" windowHeight="8030"/>
@@ -10,7 +10,7 @@
     <sheet name="自動化匯總" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">自動化匯總!$A$1:$I$164</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">自動化匯總!$A$1:$M$164</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -2239,7 +2239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="432">
   <si>
     <t>Mobile</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3899,6 +3899,30 @@
   <si>
     <t>Ready-1</t>
   </si>
+  <si>
+    <t>開發者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提案者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>導入日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-10-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-10-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3908,13 +3932,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4110,7 +4134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4207,6 +4231,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4512,13 +4539,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I164"/>
+  <dimension ref="A1:M164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J147" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="H169" sqref="H169"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="16.5"/>
@@ -4530,11 +4557,14 @@
     <col min="6" max="6" width="38.26953125" style="4" customWidth="1"/>
     <col min="7" max="7" width="41.1796875" style="2" customWidth="1"/>
     <col min="8" max="8" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="48.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.90625" style="2"/>
+    <col min="9" max="10" width="9.54296875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="12.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.54296875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="48.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" customHeight="1">
+    <row r="1" spans="1:13" ht="16.5" customHeight="1">
       <c r="A1" s="29" t="s">
         <v>246</v>
       </c>
@@ -4559,11 +4589,23 @@
       <c r="H1" s="32" t="s">
         <v>421</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>427</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>428</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>429</v>
+      </c>
+      <c r="M1" s="30" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:13">
       <c r="A2" s="15" t="s">
         <v>255</v>
       </c>
@@ -4589,8 +4631,14 @@
         <v>423</v>
       </c>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="1"/>
+      <c r="K2" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="15" t="s">
         <v>256</v>
       </c>
@@ -4616,8 +4664,14 @@
         <v>423</v>
       </c>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="1"/>
+      <c r="K3" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="15" t="s">
         <v>257</v>
       </c>
@@ -4643,8 +4697,14 @@
         <v>423</v>
       </c>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="1"/>
+      <c r="K4" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="15" t="s">
         <v>258</v>
       </c>
@@ -4670,8 +4730,14 @@
         <v>423</v>
       </c>
       <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="1"/>
+      <c r="K5" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="15" t="s">
         <v>259</v>
       </c>
@@ -4697,8 +4763,14 @@
         <v>424</v>
       </c>
       <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="1"/>
+      <c r="K6" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="15" t="s">
         <v>260</v>
       </c>
@@ -4724,8 +4796,14 @@
         <v>424</v>
       </c>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="1"/>
+      <c r="K7" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="15" t="s">
         <v>261</v>
       </c>
@@ -4751,8 +4829,14 @@
         <v>422</v>
       </c>
       <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="1"/>
+      <c r="K8" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="15" t="s">
         <v>262</v>
       </c>
@@ -4777,9 +4861,15 @@
       <c r="H9" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I9" s="15"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="15"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="15" t="s">
         <v>263</v>
       </c>
@@ -4800,9 +4890,15 @@
       <c r="H10" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I10" s="15"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="15"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="15" t="s">
         <v>264</v>
       </c>
@@ -4828,8 +4924,14 @@
         <v>423</v>
       </c>
       <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="1"/>
+      <c r="K11" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="15" t="s">
         <v>265</v>
       </c>
@@ -4855,8 +4957,14 @@
         <v>423</v>
       </c>
       <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="1"/>
+      <c r="K12" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="15" t="s">
         <v>266</v>
       </c>
@@ -4882,8 +4990,14 @@
         <v>423</v>
       </c>
       <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="1"/>
+      <c r="K13" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="15" t="s">
         <v>267</v>
       </c>
@@ -4909,8 +5023,14 @@
         <v>423</v>
       </c>
       <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="1"/>
+      <c r="K14" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="15" t="s">
         <v>268</v>
       </c>
@@ -4936,8 +5056,14 @@
         <v>423</v>
       </c>
       <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="1"/>
+      <c r="K15" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="15" t="s">
         <v>269</v>
       </c>
@@ -4963,8 +5089,14 @@
         <v>423</v>
       </c>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="1"/>
+      <c r="K16" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="15" t="s">
         <v>270</v>
       </c>
@@ -4990,8 +5122,14 @@
         <v>423</v>
       </c>
       <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="1"/>
+      <c r="K17" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="15" t="s">
         <v>271</v>
       </c>
@@ -5017,8 +5155,14 @@
         <v>423</v>
       </c>
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" s="13" customFormat="1">
+      <c r="J18" s="1"/>
+      <c r="K18" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" s="13" customFormat="1">
       <c r="A19" s="15" t="s">
         <v>272</v>
       </c>
@@ -5039,11 +5183,17 @@
       <c r="H19" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L19" s="1"/>
+      <c r="M19" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:13">
       <c r="A20" s="15" t="s">
         <v>273</v>
       </c>
@@ -5064,11 +5214,17 @@
       <c r="H20" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L20" s="1"/>
+      <c r="M20" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:13">
       <c r="A21" s="15" t="s">
         <v>274</v>
       </c>
@@ -5093,11 +5249,17 @@
       <c r="H21" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:13">
       <c r="A22" s="15" t="s">
         <v>275</v>
       </c>
@@ -5122,11 +5284,17 @@
       <c r="H22" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="M22" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:13">
       <c r="A23" s="15" t="s">
         <v>276</v>
       </c>
@@ -5151,11 +5319,17 @@
       <c r="H23" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="M23" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:13">
       <c r="A24" s="15" t="s">
         <v>277</v>
       </c>
@@ -5176,11 +5350,17 @@
       <c r="H24" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L24" s="1"/>
+      <c r="M24" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:13">
       <c r="A25" s="15" t="s">
         <v>278</v>
       </c>
@@ -5205,11 +5385,17 @@
       <c r="H25" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L25" s="1"/>
+      <c r="M25" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:13">
       <c r="A26" s="15" t="s">
         <v>279</v>
       </c>
@@ -5231,8 +5417,14 @@
         <v>423</v>
       </c>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" s="1"/>
+      <c r="K26" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="15" t="s">
         <v>280</v>
       </c>
@@ -5254,8 +5446,14 @@
         <v>423</v>
       </c>
       <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" s="1"/>
+      <c r="K27" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="15" t="s">
         <v>281</v>
       </c>
@@ -5277,8 +5475,14 @@
         <v>423</v>
       </c>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" s="1"/>
+      <c r="K28" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="15" t="s">
         <v>282</v>
       </c>
@@ -5300,8 +5504,14 @@
         <v>423</v>
       </c>
       <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" s="1"/>
+      <c r="K29" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="15" t="s">
         <v>283</v>
       </c>
@@ -5323,8 +5533,14 @@
         <v>423</v>
       </c>
       <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" s="1"/>
+      <c r="K30" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="15" t="s">
         <v>284</v>
       </c>
@@ -5346,8 +5562,14 @@
         <v>423</v>
       </c>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" s="1"/>
+      <c r="K31" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="15" t="s">
         <v>285</v>
       </c>
@@ -5369,8 +5591,14 @@
         <v>423</v>
       </c>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" s="1"/>
+      <c r="K32" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="15" t="s">
         <v>286</v>
       </c>
@@ -5392,8 +5620,14 @@
         <v>423</v>
       </c>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" s="1"/>
+      <c r="K33" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="15" t="s">
         <v>287</v>
       </c>
@@ -5415,8 +5649,14 @@
         <v>423</v>
       </c>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" s="1"/>
+      <c r="K34" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="15" t="s">
         <v>288</v>
       </c>
@@ -5438,8 +5678,14 @@
         <v>423</v>
       </c>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35" s="1"/>
+      <c r="K35" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="15" t="s">
         <v>289</v>
       </c>
@@ -5461,8 +5707,14 @@
         <v>423</v>
       </c>
       <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36" s="1"/>
+      <c r="K36" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="15" t="s">
         <v>290</v>
       </c>
@@ -5484,8 +5736,14 @@
         <v>423</v>
       </c>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" s="1"/>
+      <c r="K37" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="15" t="s">
         <v>291</v>
       </c>
@@ -5507,8 +5765,14 @@
         <v>423</v>
       </c>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38" s="1"/>
+      <c r="K38" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="15" t="s">
         <v>292</v>
       </c>
@@ -5530,8 +5794,14 @@
         <v>423</v>
       </c>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39" s="1"/>
+      <c r="K39" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="15" t="s">
         <v>293</v>
       </c>
@@ -5552,9 +5822,15 @@
       <c r="H40" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I40" s="15"/>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L40" s="1"/>
+      <c r="M40" s="15"/>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="15" t="s">
         <v>294</v>
       </c>
@@ -5575,9 +5851,15 @@
       <c r="H41" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I41" s="15"/>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L41" s="1"/>
+      <c r="M41" s="15"/>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="15" t="s">
         <v>295</v>
       </c>
@@ -5598,9 +5880,15 @@
       <c r="H42" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I42" s="15"/>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L42" s="1"/>
+      <c r="M42" s="15"/>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="15" t="s">
         <v>296</v>
       </c>
@@ -5625,9 +5913,15 @@
       <c r="H43" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I43" s="15"/>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L43" s="1"/>
+      <c r="M43" s="15"/>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="15" t="s">
         <v>297</v>
       </c>
@@ -5652,9 +5946,15 @@
       <c r="H44" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I44" s="15"/>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L44" s="1"/>
+      <c r="M44" s="15"/>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="15" t="s">
         <v>298</v>
       </c>
@@ -5675,9 +5975,15 @@
       <c r="H45" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I45" s="6"/>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L45" s="1"/>
+      <c r="M45" s="6"/>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="15" t="s">
         <v>299</v>
       </c>
@@ -5698,9 +6004,15 @@
       <c r="H46" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I46" s="6"/>
-    </row>
-    <row r="47" spans="1:9" ht="50.5" customHeight="1">
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L46" s="1"/>
+      <c r="M46" s="6"/>
+    </row>
+    <row r="47" spans="1:13" ht="50.5" customHeight="1">
       <c r="A47" s="15" t="s">
         <v>300</v>
       </c>
@@ -5721,9 +6033,15 @@
       <c r="H47" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I47" s="6"/>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L47" s="1"/>
+      <c r="M47" s="6"/>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="15" t="s">
         <v>301</v>
       </c>
@@ -5744,9 +6062,15 @@
       <c r="H48" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I48" s="6"/>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L48" s="1"/>
+      <c r="M48" s="6"/>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="15" t="s">
         <v>302</v>
       </c>
@@ -5767,9 +6091,15 @@
       <c r="H49" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I49" s="6"/>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L49" s="1"/>
+      <c r="M49" s="6"/>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="15" t="s">
         <v>303</v>
       </c>
@@ -5794,9 +6124,15 @@
       <c r="H50" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I50" s="6"/>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L50" s="1"/>
+      <c r="M50" s="6"/>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="15" t="s">
         <v>304</v>
       </c>
@@ -5821,11 +6157,17 @@
       <c r="H51" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I51" s="6" t="s">
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L51" s="1"/>
+      <c r="M51" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:13">
       <c r="A52" s="15" t="s">
         <v>306</v>
       </c>
@@ -5846,11 +6188,17 @@
       <c r="H52" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I52" s="6" t="s">
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L52" s="1"/>
+      <c r="M52" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:13">
       <c r="A53" s="15" t="s">
         <v>307</v>
       </c>
@@ -5871,11 +6219,17 @@
       <c r="H53" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I53" s="6" t="s">
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L53" s="1"/>
+      <c r="M53" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:13">
       <c r="A54" s="15" t="s">
         <v>308</v>
       </c>
@@ -5896,11 +6250,17 @@
       <c r="H54" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I54" s="6" t="s">
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L54" s="1"/>
+      <c r="M54" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:13">
       <c r="A55" s="15" t="s">
         <v>309</v>
       </c>
@@ -5921,11 +6281,17 @@
       <c r="H55" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I55" s="6" t="s">
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L55" s="1"/>
+      <c r="M55" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:13">
       <c r="A56" s="15" t="s">
         <v>310</v>
       </c>
@@ -5950,9 +6316,15 @@
       <c r="H56" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I56" s="6"/>
-    </row>
-    <row r="57" spans="1:9" s="14" customFormat="1">
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L56" s="1"/>
+      <c r="M56" s="6"/>
+    </row>
+    <row r="57" spans="1:13" s="14" customFormat="1">
       <c r="A57" s="15" t="s">
         <v>311</v>
       </c>
@@ -5977,9 +6349,15 @@
       <c r="H57" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I57" s="27"/>
-    </row>
-    <row r="58" spans="1:9" s="14" customFormat="1">
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L57" s="1"/>
+      <c r="M57" s="27"/>
+    </row>
+    <row r="58" spans="1:13" s="14" customFormat="1">
       <c r="A58" s="15" t="s">
         <v>312</v>
       </c>
@@ -6004,9 +6382,15 @@
       <c r="H58" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I58" s="27"/>
-    </row>
-    <row r="59" spans="1:9" s="13" customFormat="1">
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L58" s="1"/>
+      <c r="M58" s="27"/>
+    </row>
+    <row r="59" spans="1:13" s="13" customFormat="1">
       <c r="A59" s="15" t="s">
         <v>313</v>
       </c>
@@ -6027,11 +6411,17 @@
       <c r="H59" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I59" s="12" t="s">
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L59" s="1"/>
+      <c r="M59" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:13">
       <c r="A60" s="15" t="s">
         <v>314</v>
       </c>
@@ -6053,8 +6443,14 @@
         <v>423</v>
       </c>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="J60" s="1"/>
+      <c r="K60" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="15" t="s">
         <v>315</v>
       </c>
@@ -6076,8 +6472,14 @@
         <v>423</v>
       </c>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="J61" s="1"/>
+      <c r="K61" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="15" t="s">
         <v>316</v>
       </c>
@@ -6099,8 +6501,14 @@
         <v>423</v>
       </c>
       <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="J62" s="1"/>
+      <c r="K62" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="15" t="s">
         <v>317</v>
       </c>
@@ -6122,8 +6530,14 @@
         <v>423</v>
       </c>
       <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="J63" s="1"/>
+      <c r="K63" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="15" t="s">
         <v>318</v>
       </c>
@@ -6145,8 +6559,14 @@
         <v>423</v>
       </c>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="J64" s="1"/>
+      <c r="K64" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="15" t="s">
         <v>319</v>
       </c>
@@ -6168,8 +6588,14 @@
         <v>423</v>
       </c>
       <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="1:9" ht="33">
+      <c r="J65" s="1"/>
+      <c r="K65" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+    </row>
+    <row r="66" spans="1:13" ht="33">
       <c r="A66" s="15" t="s">
         <v>320</v>
       </c>
@@ -6191,8 +6617,14 @@
         <v>423</v>
       </c>
       <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="J66" s="1"/>
+      <c r="K66" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="15" t="s">
         <v>321</v>
       </c>
@@ -6214,8 +6646,14 @@
         <v>423</v>
       </c>
       <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="J67" s="1"/>
+      <c r="K67" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="15" t="s">
         <v>322</v>
       </c>
@@ -6236,9 +6674,15 @@
       <c r="H68" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I68" s="6"/>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L68" s="1"/>
+      <c r="M68" s="6"/>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="15" t="s">
         <v>323</v>
       </c>
@@ -6259,9 +6703,15 @@
       <c r="H69" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I69" s="6"/>
-    </row>
-    <row r="70" spans="1:9" ht="49.5">
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L69" s="1"/>
+      <c r="M69" s="6"/>
+    </row>
+    <row r="70" spans="1:13" ht="49.5">
       <c r="A70" s="15" t="s">
         <v>324</v>
       </c>
@@ -6282,9 +6732,15 @@
       <c r="H70" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I70" s="6"/>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L70" s="1"/>
+      <c r="M70" s="6"/>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="15" t="s">
         <v>325</v>
       </c>
@@ -6305,11 +6761,17 @@
       <c r="H71" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I71" s="6" t="s">
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L71" s="1"/>
+      <c r="M71" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:13">
       <c r="A72" s="15" t="s">
         <v>326</v>
       </c>
@@ -6330,11 +6792,17 @@
       <c r="H72" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I72" s="6" t="s">
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L72" s="1"/>
+      <c r="M72" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="33">
+    <row r="73" spans="1:13" ht="33">
       <c r="A73" s="15" t="s">
         <v>327</v>
       </c>
@@ -6355,11 +6823,17 @@
       <c r="H73" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I73" s="7" t="s">
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L73" s="1"/>
+      <c r="M73" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:13">
       <c r="A74" s="15" t="s">
         <v>328</v>
       </c>
@@ -6380,11 +6854,17 @@
       <c r="H74" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I74" s="6" t="s">
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L74" s="1"/>
+      <c r="M74" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:13">
       <c r="A75" s="15" t="s">
         <v>329</v>
       </c>
@@ -6405,11 +6885,17 @@
       <c r="H75" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I75" s="6" t="s">
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L75" s="1"/>
+      <c r="M75" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:13">
       <c r="A76" s="15" t="s">
         <v>330</v>
       </c>
@@ -6430,11 +6916,17 @@
       <c r="H76" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I76" s="6" t="s">
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L76" s="1"/>
+      <c r="M76" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:13">
       <c r="A77" s="15" t="s">
         <v>331</v>
       </c>
@@ -6455,11 +6947,17 @@
       <c r="H77" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I77" s="6" t="s">
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L77" s="1"/>
+      <c r="M77" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="49.5">
+    <row r="78" spans="1:13" ht="33">
       <c r="A78" s="15" t="s">
         <v>332</v>
       </c>
@@ -6480,11 +6978,17 @@
       <c r="H78" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I78" s="7" t="s">
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L78" s="1"/>
+      <c r="M78" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:13">
       <c r="A79" s="15" t="s">
         <v>333</v>
       </c>
@@ -6505,11 +7009,17 @@
       <c r="H79" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I79" s="6" t="s">
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L79" s="1"/>
+      <c r="M79" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:13">
       <c r="A80" s="15" t="s">
         <v>334</v>
       </c>
@@ -6530,11 +7040,17 @@
       <c r="H80" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I80" s="7" t="s">
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L80" s="1"/>
+      <c r="M80" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:13">
       <c r="A81" s="15" t="s">
         <v>335</v>
       </c>
@@ -6555,11 +7071,17 @@
       <c r="H81" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I81" s="6" t="s">
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L81" s="1"/>
+      <c r="M81" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:13">
       <c r="A82" s="15" t="s">
         <v>336</v>
       </c>
@@ -6580,11 +7102,17 @@
       <c r="H82" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I82" s="6" t="s">
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L82" s="1"/>
+      <c r="M82" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:13">
       <c r="A83" s="15" t="s">
         <v>337</v>
       </c>
@@ -6605,11 +7133,17 @@
       <c r="H83" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I83" s="6" t="s">
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L83" s="1"/>
+      <c r="M83" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:13">
       <c r="A84" s="15" t="s">
         <v>339</v>
       </c>
@@ -6630,9 +7164,15 @@
       <c r="H84" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I84" s="6"/>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L84" s="1"/>
+      <c r="M84" s="6"/>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="15" t="s">
         <v>340</v>
       </c>
@@ -6653,9 +7193,15 @@
       <c r="H85" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I85" s="6"/>
-    </row>
-    <row r="86" spans="1:9">
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L85" s="1"/>
+      <c r="M85" s="6"/>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="15" t="s">
         <v>341</v>
       </c>
@@ -6676,9 +7222,15 @@
       <c r="H86" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I86" s="6"/>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L86" s="1"/>
+      <c r="M86" s="6"/>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="15" t="s">
         <v>342</v>
       </c>
@@ -6699,9 +7251,15 @@
       <c r="H87" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I87" s="6"/>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L87" s="1"/>
+      <c r="M87" s="6"/>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="15" t="s">
         <v>343</v>
       </c>
@@ -6722,9 +7280,15 @@
       <c r="H88" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I88" s="6"/>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L88" s="1"/>
+      <c r="M88" s="6"/>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="15" t="s">
         <v>344</v>
       </c>
@@ -6745,9 +7309,15 @@
       <c r="H89" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I89" s="6"/>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L89" s="1"/>
+      <c r="M89" s="6"/>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="15" t="s">
         <v>345</v>
       </c>
@@ -6768,9 +7338,15 @@
       <c r="H90" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I90" s="6"/>
-    </row>
-    <row r="91" spans="1:9" ht="31">
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L90" s="1"/>
+      <c r="M90" s="6"/>
+    </row>
+    <row r="91" spans="1:13" ht="31">
       <c r="A91" s="15" t="s">
         <v>346</v>
       </c>
@@ -6791,9 +7367,15 @@
       <c r="H91" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I91" s="6"/>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L91" s="1"/>
+      <c r="M91" s="6"/>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="15" t="s">
         <v>347</v>
       </c>
@@ -6814,9 +7396,15 @@
       <c r="H92" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I92" s="6"/>
-    </row>
-    <row r="93" spans="1:9">
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L92" s="1"/>
+      <c r="M92" s="6"/>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="15" t="s">
         <v>348</v>
       </c>
@@ -6837,9 +7425,15 @@
       <c r="H93" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I93" s="6"/>
-    </row>
-    <row r="94" spans="1:9">
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L93" s="1"/>
+      <c r="M93" s="6"/>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="15" t="s">
         <v>349</v>
       </c>
@@ -6860,9 +7454,15 @@
       <c r="H94" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I94" s="6"/>
-    </row>
-    <row r="95" spans="1:9">
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L94" s="1"/>
+      <c r="M94" s="6"/>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="15" t="s">
         <v>350</v>
       </c>
@@ -6883,9 +7483,15 @@
       <c r="H95" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I95" s="6"/>
-    </row>
-    <row r="96" spans="1:9">
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L95" s="1"/>
+      <c r="M95" s="6"/>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="15" t="s">
         <v>351</v>
       </c>
@@ -6906,9 +7512,15 @@
       <c r="H96" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I96" s="6"/>
-    </row>
-    <row r="97" spans="1:9" ht="49.5">
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L96" s="1"/>
+      <c r="M96" s="6"/>
+    </row>
+    <row r="97" spans="1:13" ht="49.5">
       <c r="A97" s="15" t="s">
         <v>352</v>
       </c>
@@ -6929,9 +7541,15 @@
       <c r="H97" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I97" s="6"/>
-    </row>
-    <row r="98" spans="1:9">
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L97" s="1"/>
+      <c r="M97" s="6"/>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="15" t="s">
         <v>354</v>
       </c>
@@ -6952,9 +7570,15 @@
       <c r="H98" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I98" s="6"/>
-    </row>
-    <row r="99" spans="1:9">
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L98" s="1"/>
+      <c r="M98" s="6"/>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="15" t="s">
         <v>355</v>
       </c>
@@ -6975,9 +7599,15 @@
       <c r="H99" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I99" s="6"/>
-    </row>
-    <row r="100" spans="1:9">
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L99" s="1"/>
+      <c r="M99" s="6"/>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="15" t="s">
         <v>356</v>
       </c>
@@ -6998,9 +7628,15 @@
       <c r="H100" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I100" s="6"/>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L100" s="1"/>
+      <c r="M100" s="6"/>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="15" t="s">
         <v>357</v>
       </c>
@@ -7021,9 +7657,15 @@
       <c r="H101" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I101" s="6"/>
-    </row>
-    <row r="102" spans="1:9">
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L101" s="1"/>
+      <c r="M101" s="6"/>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="15" t="s">
         <v>358</v>
       </c>
@@ -7044,9 +7686,15 @@
       <c r="H102" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I102" s="6"/>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L102" s="1"/>
+      <c r="M102" s="6"/>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="15" t="s">
         <v>359</v>
       </c>
@@ -7067,9 +7715,15 @@
       <c r="H103" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I103" s="6"/>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L103" s="1"/>
+      <c r="M103" s="6"/>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="15" t="s">
         <v>360</v>
       </c>
@@ -7090,9 +7744,15 @@
       <c r="H104" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I104" s="6"/>
-    </row>
-    <row r="105" spans="1:9">
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L104" s="1"/>
+      <c r="M104" s="6"/>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" s="15" t="s">
         <v>361</v>
       </c>
@@ -7113,9 +7773,15 @@
       <c r="H105" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I105" s="6"/>
-    </row>
-    <row r="106" spans="1:9">
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L105" s="1"/>
+      <c r="M105" s="6"/>
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106" s="15" t="s">
         <v>362</v>
       </c>
@@ -7136,9 +7802,15 @@
       <c r="H106" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I106" s="6"/>
-    </row>
-    <row r="107" spans="1:9">
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L106" s="1"/>
+      <c r="M106" s="6"/>
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107" s="15" t="s">
         <v>363</v>
       </c>
@@ -7159,9 +7831,15 @@
       <c r="H107" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I107" s="6"/>
-    </row>
-    <row r="108" spans="1:9">
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L107" s="1"/>
+      <c r="M107" s="6"/>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108" s="15" t="s">
         <v>364</v>
       </c>
@@ -7182,9 +7860,15 @@
       <c r="H108" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I108" s="6"/>
-    </row>
-    <row r="109" spans="1:9">
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L108" s="1"/>
+      <c r="M108" s="6"/>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" s="15" t="s">
         <v>365</v>
       </c>
@@ -7205,9 +7889,15 @@
       <c r="H109" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I109" s="6"/>
-    </row>
-    <row r="110" spans="1:9">
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L109" s="1"/>
+      <c r="M109" s="6"/>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" s="15" t="s">
         <v>366</v>
       </c>
@@ -7228,9 +7918,15 @@
       <c r="H110" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I110" s="6"/>
-    </row>
-    <row r="111" spans="1:9" ht="33">
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L110" s="1"/>
+      <c r="M110" s="6"/>
+    </row>
+    <row r="111" spans="1:13" ht="33">
       <c r="A111" s="15" t="s">
         <v>367</v>
       </c>
@@ -7251,9 +7947,15 @@
       <c r="H111" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I111" s="6"/>
-    </row>
-    <row r="112" spans="1:9">
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L111" s="1"/>
+      <c r="M111" s="6"/>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" s="15" t="s">
         <v>368</v>
       </c>
@@ -7278,9 +7980,15 @@
       <c r="H112" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I112" s="6"/>
-    </row>
-    <row r="113" spans="1:9">
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L112" s="1"/>
+      <c r="M112" s="6"/>
+    </row>
+    <row r="113" spans="1:13">
       <c r="A113" s="15" t="s">
         <v>369</v>
       </c>
@@ -7305,9 +8013,15 @@
       <c r="H113" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I113" s="6"/>
-    </row>
-    <row r="114" spans="1:9">
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L113" s="1"/>
+      <c r="M113" s="6"/>
+    </row>
+    <row r="114" spans="1:13">
       <c r="A114" s="15" t="s">
         <v>370</v>
       </c>
@@ -7332,9 +8046,15 @@
       <c r="H114" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I114" s="6"/>
-    </row>
-    <row r="115" spans="1:9">
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L114" s="1"/>
+      <c r="M114" s="6"/>
+    </row>
+    <row r="115" spans="1:13">
       <c r="A115" s="15" t="s">
         <v>371</v>
       </c>
@@ -7359,9 +8079,15 @@
       <c r="H115" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="I115" s="6"/>
-    </row>
-    <row r="116" spans="1:9">
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L115" s="1"/>
+      <c r="M115" s="6"/>
+    </row>
+    <row r="116" spans="1:13">
       <c r="A116" s="15" t="s">
         <v>372</v>
       </c>
@@ -7386,9 +8112,15 @@
       <c r="H116" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="I116" s="6"/>
-    </row>
-    <row r="117" spans="1:9">
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L116" s="1"/>
+      <c r="M116" s="6"/>
+    </row>
+    <row r="117" spans="1:13">
       <c r="A117" s="15" t="s">
         <v>373</v>
       </c>
@@ -7413,9 +8145,15 @@
       <c r="H117" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="I117" s="6"/>
-    </row>
-    <row r="118" spans="1:9">
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L117" s="1"/>
+      <c r="M117" s="6"/>
+    </row>
+    <row r="118" spans="1:13">
       <c r="A118" s="15" t="s">
         <v>374</v>
       </c>
@@ -7440,9 +8178,15 @@
       <c r="H118" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="I118" s="6"/>
-    </row>
-    <row r="119" spans="1:9">
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L118" s="1"/>
+      <c r="M118" s="6"/>
+    </row>
+    <row r="119" spans="1:13">
       <c r="A119" s="15" t="s">
         <v>375</v>
       </c>
@@ -7467,9 +8211,15 @@
       <c r="H119" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="I119" s="6"/>
-    </row>
-    <row r="120" spans="1:9">
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L119" s="1"/>
+      <c r="M119" s="6"/>
+    </row>
+    <row r="120" spans="1:13">
       <c r="A120" s="15" t="s">
         <v>376</v>
       </c>
@@ -7494,9 +8244,15 @@
       <c r="H120" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="I120" s="6"/>
-    </row>
-    <row r="121" spans="1:9">
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L120" s="1"/>
+      <c r="M120" s="6"/>
+    </row>
+    <row r="121" spans="1:13">
       <c r="A121" s="15" t="s">
         <v>377</v>
       </c>
@@ -7521,9 +8277,15 @@
       <c r="H121" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="I121" s="6"/>
-    </row>
-    <row r="122" spans="1:9">
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L121" s="1"/>
+      <c r="M121" s="6"/>
+    </row>
+    <row r="122" spans="1:13">
       <c r="A122" s="15" t="s">
         <v>378</v>
       </c>
@@ -7548,9 +8310,15 @@
       <c r="H122" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="I122" s="6"/>
-    </row>
-    <row r="123" spans="1:9">
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L122" s="1"/>
+      <c r="M122" s="6"/>
+    </row>
+    <row r="123" spans="1:13">
       <c r="A123" s="15" t="s">
         <v>379</v>
       </c>
@@ -7575,9 +8343,15 @@
       <c r="H123" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="I123" s="6"/>
-    </row>
-    <row r="124" spans="1:9">
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L123" s="1"/>
+      <c r="M123" s="6"/>
+    </row>
+    <row r="124" spans="1:13">
       <c r="A124" s="15" t="s">
         <v>380</v>
       </c>
@@ -7602,9 +8376,15 @@
       <c r="H124" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="I124" s="6"/>
-    </row>
-    <row r="125" spans="1:9">
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+      <c r="K124" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L124" s="1"/>
+      <c r="M124" s="6"/>
+    </row>
+    <row r="125" spans="1:13">
       <c r="A125" s="15" t="s">
         <v>381</v>
       </c>
@@ -7629,9 +8409,15 @@
       <c r="H125" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="I125" s="6"/>
-    </row>
-    <row r="126" spans="1:9">
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+      <c r="K125" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L125" s="1"/>
+      <c r="M125" s="6"/>
+    </row>
+    <row r="126" spans="1:13">
       <c r="A126" s="15" t="s">
         <v>382</v>
       </c>
@@ -7656,9 +8442,15 @@
       <c r="H126" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="I126" s="6"/>
-    </row>
-    <row r="127" spans="1:9">
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
+      <c r="K126" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L126" s="1"/>
+      <c r="M126" s="6"/>
+    </row>
+    <row r="127" spans="1:13">
       <c r="A127" s="15" t="s">
         <v>383</v>
       </c>
@@ -7683,9 +8475,15 @@
       <c r="H127" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="I127" s="6"/>
-    </row>
-    <row r="128" spans="1:9">
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+      <c r="K127" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L127" s="1"/>
+      <c r="M127" s="6"/>
+    </row>
+    <row r="128" spans="1:13">
       <c r="A128" s="15" t="s">
         <v>384</v>
       </c>
@@ -7710,9 +8508,15 @@
       <c r="H128" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="I128" s="6"/>
-    </row>
-    <row r="129" spans="1:9">
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+      <c r="K128" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L128" s="1"/>
+      <c r="M128" s="6"/>
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129" s="15" t="s">
         <v>385</v>
       </c>
@@ -7737,9 +8541,15 @@
       <c r="H129" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="I129" s="6"/>
-    </row>
-    <row r="130" spans="1:9">
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+      <c r="K129" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L129" s="1"/>
+      <c r="M129" s="6"/>
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" s="15" t="s">
         <v>386</v>
       </c>
@@ -7764,9 +8574,15 @@
       <c r="H130" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="I130" s="6"/>
-    </row>
-    <row r="131" spans="1:9">
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+      <c r="K130" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L130" s="1"/>
+      <c r="M130" s="6"/>
+    </row>
+    <row r="131" spans="1:13">
       <c r="A131" s="15" t="s">
         <v>387</v>
       </c>
@@ -7791,9 +8607,15 @@
       <c r="H131" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="I131" s="6"/>
-    </row>
-    <row r="132" spans="1:9" ht="33">
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+      <c r="K131" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L131" s="1"/>
+      <c r="M131" s="6"/>
+    </row>
+    <row r="132" spans="1:13" ht="33">
       <c r="A132" s="15" t="s">
         <v>388</v>
       </c>
@@ -7818,9 +8640,15 @@
       <c r="H132" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="I132" s="6"/>
-    </row>
-    <row r="133" spans="1:9">
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
+      <c r="K132" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L132" s="1"/>
+      <c r="M132" s="6"/>
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133" s="15" t="s">
         <v>389</v>
       </c>
@@ -7845,9 +8673,15 @@
       <c r="H133" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="I133" s="6"/>
-    </row>
-    <row r="134" spans="1:9">
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+      <c r="K133" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L133" s="1"/>
+      <c r="M133" s="6"/>
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134" s="15" t="s">
         <v>390</v>
       </c>
@@ -7872,9 +8706,15 @@
       <c r="H134" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="I134" s="6"/>
-    </row>
-    <row r="135" spans="1:9">
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+      <c r="K134" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L134" s="1"/>
+      <c r="M134" s="6"/>
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135" s="15" t="s">
         <v>391</v>
       </c>
@@ -7899,9 +8739,15 @@
       <c r="H135" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="I135" s="6"/>
-    </row>
-    <row r="136" spans="1:9">
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+      <c r="K135" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L135" s="1"/>
+      <c r="M135" s="6"/>
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136" s="15" t="s">
         <v>392</v>
       </c>
@@ -7926,9 +8772,15 @@
       <c r="H136" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="I136" s="6"/>
-    </row>
-    <row r="137" spans="1:9">
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
+      <c r="K136" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L136" s="1"/>
+      <c r="M136" s="6"/>
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137" s="15" t="s">
         <v>393</v>
       </c>
@@ -7953,9 +8805,15 @@
       <c r="H137" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I137" s="6"/>
-    </row>
-    <row r="138" spans="1:9">
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+      <c r="K137" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L137" s="1"/>
+      <c r="M137" s="6"/>
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138" s="15" t="s">
         <v>394</v>
       </c>
@@ -7980,9 +8838,15 @@
       <c r="H138" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I138" s="6"/>
-    </row>
-    <row r="139" spans="1:9">
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
+      <c r="K138" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L138" s="1"/>
+      <c r="M138" s="6"/>
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139" s="15" t="s">
         <v>395</v>
       </c>
@@ -8007,9 +8871,15 @@
       <c r="H139" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="I139" s="6"/>
-    </row>
-    <row r="140" spans="1:9">
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
+      <c r="K139" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L139" s="1"/>
+      <c r="M139" s="6"/>
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140" s="15" t="s">
         <v>396</v>
       </c>
@@ -8034,9 +8904,15 @@
       <c r="H140" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="I140" s="6"/>
-    </row>
-    <row r="141" spans="1:9" ht="16.5" customHeight="1">
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
+      <c r="K140" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L140" s="1"/>
+      <c r="M140" s="6"/>
+    </row>
+    <row r="141" spans="1:13" ht="16.5" customHeight="1">
       <c r="A141" s="15" t="s">
         <v>397</v>
       </c>
@@ -8061,9 +8937,15 @@
       <c r="H141" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="I141" s="6"/>
-    </row>
-    <row r="142" spans="1:9">
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
+      <c r="K141" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L141" s="1"/>
+      <c r="M141" s="6"/>
+    </row>
+    <row r="142" spans="1:13">
       <c r="A142" s="15" t="s">
         <v>398</v>
       </c>
@@ -8088,9 +8970,15 @@
       <c r="H142" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="I142" s="6"/>
-    </row>
-    <row r="143" spans="1:9">
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
+      <c r="K142" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L142" s="1"/>
+      <c r="M142" s="6"/>
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143" s="15" t="s">
         <v>399</v>
       </c>
@@ -8115,9 +9003,15 @@
       <c r="H143" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="I143" s="6"/>
-    </row>
-    <row r="144" spans="1:9">
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+      <c r="K143" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L143" s="1"/>
+      <c r="M143" s="6"/>
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144" s="15" t="s">
         <v>400</v>
       </c>
@@ -8142,9 +9036,15 @@
       <c r="H144" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="I144" s="6"/>
-    </row>
-    <row r="145" spans="1:9">
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
+      <c r="K144" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L144" s="1"/>
+      <c r="M144" s="6"/>
+    </row>
+    <row r="145" spans="1:13">
       <c r="A145" s="15" t="s">
         <v>401</v>
       </c>
@@ -8169,9 +9069,15 @@
       <c r="H145" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="I145" s="6"/>
-    </row>
-    <row r="146" spans="1:9">
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
+      <c r="K145" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L145" s="1"/>
+      <c r="M145" s="6"/>
+    </row>
+    <row r="146" spans="1:13">
       <c r="A146" s="15" t="s">
         <v>402</v>
       </c>
@@ -8196,9 +9102,15 @@
       <c r="H146" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="I146" s="6"/>
-    </row>
-    <row r="147" spans="1:9">
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+      <c r="K146" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L146" s="1"/>
+      <c r="M146" s="6"/>
+    </row>
+    <row r="147" spans="1:13">
       <c r="A147" s="15" t="s">
         <v>403</v>
       </c>
@@ -8223,9 +9135,15 @@
       <c r="H147" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="I147" s="6"/>
-    </row>
-    <row r="148" spans="1:9">
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
+      <c r="K147" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L147" s="1"/>
+      <c r="M147" s="6"/>
+    </row>
+    <row r="148" spans="1:13">
       <c r="A148" s="15" t="s">
         <v>404</v>
       </c>
@@ -8250,9 +9168,15 @@
       <c r="H148" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="I148" s="6"/>
-    </row>
-    <row r="149" spans="1:9">
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+      <c r="K148" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L148" s="1"/>
+      <c r="M148" s="6"/>
+    </row>
+    <row r="149" spans="1:13">
       <c r="A149" s="15" t="s">
         <v>405</v>
       </c>
@@ -8277,9 +9201,15 @@
       <c r="H149" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="I149" s="6"/>
-    </row>
-    <row r="150" spans="1:9">
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+      <c r="K149" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L149" s="1"/>
+      <c r="M149" s="6"/>
+    </row>
+    <row r="150" spans="1:13">
       <c r="A150" s="15" t="s">
         <v>406</v>
       </c>
@@ -8304,9 +9234,15 @@
       <c r="H150" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="I150" s="6"/>
-    </row>
-    <row r="151" spans="1:9">
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+      <c r="K150" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L150" s="1"/>
+      <c r="M150" s="6"/>
+    </row>
+    <row r="151" spans="1:13">
       <c r="A151" s="15" t="s">
         <v>407</v>
       </c>
@@ -8331,9 +9267,15 @@
       <c r="H151" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="I151" s="6"/>
-    </row>
-    <row r="152" spans="1:9">
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+      <c r="K151" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L151" s="1"/>
+      <c r="M151" s="6"/>
+    </row>
+    <row r="152" spans="1:13">
       <c r="A152" s="15" t="s">
         <v>408</v>
       </c>
@@ -8358,9 +9300,15 @@
       <c r="H152" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="I152" s="6"/>
-    </row>
-    <row r="153" spans="1:9">
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
+      <c r="K152" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L152" s="1"/>
+      <c r="M152" s="6"/>
+    </row>
+    <row r="153" spans="1:13">
       <c r="A153" s="15" t="s">
         <v>409</v>
       </c>
@@ -8385,9 +9333,15 @@
       <c r="H153" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="I153" s="6"/>
-    </row>
-    <row r="154" spans="1:9">
+      <c r="I153" s="1"/>
+      <c r="J153" s="1"/>
+      <c r="K153" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L153" s="1"/>
+      <c r="M153" s="6"/>
+    </row>
+    <row r="154" spans="1:13">
       <c r="A154" s="15" t="s">
         <v>410</v>
       </c>
@@ -8412,9 +9366,15 @@
       <c r="H154" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="I154" s="6"/>
-    </row>
-    <row r="155" spans="1:9">
+      <c r="I154" s="1"/>
+      <c r="J154" s="1"/>
+      <c r="K154" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L154" s="1"/>
+      <c r="M154" s="6"/>
+    </row>
+    <row r="155" spans="1:13">
       <c r="A155" s="15" t="s">
         <v>411</v>
       </c>
@@ -8439,9 +9399,15 @@
       <c r="H155" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="I155" s="6"/>
-    </row>
-    <row r="156" spans="1:9">
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
+      <c r="K155" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L155" s="1"/>
+      <c r="M155" s="6"/>
+    </row>
+    <row r="156" spans="1:13">
       <c r="A156" s="15" t="s">
         <v>412</v>
       </c>
@@ -8466,9 +9432,15 @@
       <c r="H156" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="I156" s="6"/>
-    </row>
-    <row r="157" spans="1:9">
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
+      <c r="K156" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L156" s="1"/>
+      <c r="M156" s="6"/>
+    </row>
+    <row r="157" spans="1:13">
       <c r="A157" s="15" t="s">
         <v>413</v>
       </c>
@@ -8493,9 +9465,15 @@
       <c r="H157" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="I157" s="6"/>
-    </row>
-    <row r="158" spans="1:9">
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+      <c r="K157" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L157" s="1"/>
+      <c r="M157" s="6"/>
+    </row>
+    <row r="158" spans="1:13">
       <c r="A158" s="15" t="s">
         <v>414</v>
       </c>
@@ -8520,9 +9498,15 @@
       <c r="H158" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="I158" s="6"/>
-    </row>
-    <row r="159" spans="1:9">
+      <c r="I158" s="1"/>
+      <c r="J158" s="1"/>
+      <c r="K158" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L158" s="1"/>
+      <c r="M158" s="6"/>
+    </row>
+    <row r="159" spans="1:13">
       <c r="A159" s="15" t="s">
         <v>415</v>
       </c>
@@ -8547,9 +9531,15 @@
       <c r="H159" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="I159" s="6"/>
-    </row>
-    <row r="160" spans="1:9">
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
+      <c r="K159" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L159" s="1"/>
+      <c r="M159" s="6"/>
+    </row>
+    <row r="160" spans="1:13">
       <c r="A160" s="15" t="s">
         <v>416</v>
       </c>
@@ -8574,9 +9564,15 @@
       <c r="H160" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="I160" s="6"/>
-    </row>
-    <row r="161" spans="1:9">
+      <c r="I160" s="1"/>
+      <c r="J160" s="1"/>
+      <c r="K160" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L160" s="1"/>
+      <c r="M160" s="6"/>
+    </row>
+    <row r="161" spans="1:13">
       <c r="A161" s="15" t="s">
         <v>417</v>
       </c>
@@ -8601,9 +9597,15 @@
       <c r="H161" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="I161" s="6"/>
-    </row>
-    <row r="162" spans="1:9">
+      <c r="I161" s="1"/>
+      <c r="J161" s="1"/>
+      <c r="K161" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L161" s="1"/>
+      <c r="M161" s="6"/>
+    </row>
+    <row r="162" spans="1:13">
       <c r="A162" s="15" t="s">
         <v>418</v>
       </c>
@@ -8628,9 +9630,15 @@
       <c r="H162" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="I162" s="6"/>
-    </row>
-    <row r="163" spans="1:9">
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
+      <c r="K162" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L162" s="1"/>
+      <c r="M162" s="6"/>
+    </row>
+    <row r="163" spans="1:13">
       <c r="A163" s="15" t="s">
         <v>419</v>
       </c>
@@ -8655,9 +9663,15 @@
       <c r="H163" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="I163" s="6"/>
-    </row>
-    <row r="164" spans="1:9">
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
+      <c r="K163" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L163" s="1"/>
+      <c r="M163" s="6"/>
+    </row>
+    <row r="164" spans="1:13">
       <c r="A164" s="15" t="s">
         <v>420</v>
       </c>
@@ -8682,7 +9696,13 @@
       <c r="H164" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="I164" s="6"/>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
+      <c r="K164" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="L164" s="1"/>
+      <c r="M164" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
